--- a/data/panelapp/uk/Ichthyosis and erythrokeratoderma.xlsx
+++ b/data/panelapp/uk/Ichthyosis and erythrokeratoderma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993044</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993056</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993059</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993062</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993065</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993068</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993071</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993074</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993077</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993080</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993082</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993085</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993088</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993091</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993094</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993097</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993099</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993102</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993105</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993108</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993110</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993113</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993116</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993119</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993123</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993125</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993128</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993131</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993133</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993136</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993139</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993141</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993144</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993147</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993150</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993153</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993155</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993158</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993160</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993163</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993166</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993169</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993172</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993175</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993177</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993180</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993183</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993185</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993188</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993191</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993194</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Ichthyosis and erythrokeratoderma</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993196</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1761,12 +2026,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>KRT2</t>
+          <t>GTF2E2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>keratin 2</t>
+          <t>general transcription factor IIE subunit 2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1777,6 +2042,11 @@
       <c r="E54" t="inlineStr">
         <is>
           <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993199</t>
         </is>
       </c>
     </row>
@@ -1786,12 +2056,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MSMO1</t>
+          <t>KRT2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>methylsterol monooxygenase 1</t>
+          <t>keratin 2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1802,6 +2072,11 @@
       <c r="E55" t="inlineStr">
         <is>
           <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993202</t>
         </is>
       </c>
     </row>
@@ -1811,12 +2086,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SMARCAD1</t>
+          <t>MSMO1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SWI/SNF-related, matrix-associated actin-dependent regulator of chromatin, subfamily a, containing DEAD/H box 1</t>
+          <t>methylsterol monooxygenase 1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1827,6 +2102,11 @@
       <c r="E56" t="inlineStr">
         <is>
           <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993205</t>
         </is>
       </c>
     </row>
@@ -1836,22 +2116,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DES</t>
+          <t>SMARCAD1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>desmin</t>
+          <t>SWI/SNF-related, matrix-associated actin-dependent regulator of chromatin, subfamily a, containing DEAD/H box 1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993207</t>
         </is>
       </c>
     </row>
@@ -1861,12 +2146,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DSG2</t>
+          <t>DES</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>desmoglein 2</t>
+          <t>desmin</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1877,6 +2162,11 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993210</t>
         </is>
       </c>
     </row>
@@ -1886,12 +2176,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ELOVL4</t>
+          <t>DSG2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ELOVL fatty acid elongase 4</t>
+          <t>desmoglein 2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1902,6 +2192,11 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993213</t>
         </is>
       </c>
     </row>
@@ -1911,12 +2206,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FAM83G</t>
+          <t>ELOVL4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>family with sequence similarity 83 member G</t>
+          <t>ELOVL fatty acid elongase 4</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1927,6 +2222,11 @@
       <c r="E60" t="inlineStr">
         <is>
           <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993215</t>
         </is>
       </c>
     </row>
@@ -1936,12 +2236,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KANK2</t>
+          <t>FAM83G</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>KN motif and ankyrin repeat domains 2</t>
+          <t>family with sequence similarity 83 member G</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1952,6 +2252,11 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993218</t>
         </is>
       </c>
     </row>
@@ -1961,12 +2266,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LIPH</t>
+          <t>KANK2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>lipase H</t>
+          <t>KN motif and ankyrin repeat domains 2</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1977,6 +2282,11 @@
       <c r="E62" t="inlineStr">
         <is>
           <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993221</t>
         </is>
       </c>
     </row>
@@ -1986,12 +2296,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LIPN</t>
+          <t>LIPH</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>lipase family member N</t>
+          <t>lipase H</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2002,6 +2312,11 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993223</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2326,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MBTPS2</t>
+          <t>LIPN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>membrane bound transcription factor peptidase, site 2</t>
+          <t>lipase family member N</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2027,6 +2342,11 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993226</t>
         </is>
       </c>
     </row>
@@ -2036,12 +2356,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MT-TS1</t>
+          <t>MBTPS2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>mitochondrially encoded tRNA serine 1 (UCN)</t>
+          <t>membrane bound transcription factor peptidase, site 2</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2052,6 +2372,11 @@
       <c r="E65" t="inlineStr">
         <is>
           <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993228</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2386,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>POMP</t>
+          <t>MT-TS1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>proteasome maturation protein</t>
+          <t>mitochondrially encoded tRNA serine 1 (UCN)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2077,6 +2402,11 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993233</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2416,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SASH1</t>
+          <t>POMP</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SAM and SH3 domain containing 1</t>
+          <t>proteasome maturation protein</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2102,6 +2432,11 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993236</t>
         </is>
       </c>
     </row>
@@ -2111,22 +2446,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ALDH1L2</t>
+          <t>SASH1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>aldehyde dehydrogenase 1 family member L2</t>
+          <t>SAM and SH3 domain containing 1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993238</t>
         </is>
       </c>
     </row>
@@ -2136,12 +2476,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PERP</t>
+          <t>ALDH1L2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PERP, TP53 apoptosis effector</t>
+          <t>aldehyde dehydrogenase 1 family member L2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2152,6 +2492,11 @@
       <c r="E69" t="inlineStr">
         <is>
           <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993241</t>
         </is>
       </c>
     </row>
@@ -2161,22 +2506,57 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>PERP</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PERP, TP53 apoptosis effector</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993244</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>SREBF1</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>sterol regulatory element binding transcription factor 1</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Ichthyosis and erythrokeratoderma</t>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:28.993247</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/uk/Ichthyosis and erythrokeratoderma.xlsx
+++ b/data/panelapp/uk/Ichthyosis and erythrokeratoderma.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993044</t>
+          <t>2021-10-05 14:21:02.530665</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993056</t>
+          <t>2021-10-05 14:21:02.530673</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993059</t>
+          <t>2021-10-05 14:21:02.530676</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993062</t>
+          <t>2021-10-05 14:21:02.530679</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993065</t>
+          <t>2021-10-05 14:21:02.530682</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993068</t>
+          <t>2021-10-05 14:21:02.530685</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993071</t>
+          <t>2021-10-05 14:21:02.530688</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993074</t>
+          <t>2021-10-05 14:21:02.530690</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993077</t>
+          <t>2021-10-05 14:21:02.530693</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993080</t>
+          <t>2021-10-05 14:21:02.530696</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993082</t>
+          <t>2021-10-05 14:21:02.530698</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993085</t>
+          <t>2021-10-05 14:21:02.530701</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993088</t>
+          <t>2021-10-05 14:21:02.530704</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993091</t>
+          <t>2021-10-05 14:21:02.530706</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993094</t>
+          <t>2021-10-05 14:21:02.530709</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993097</t>
+          <t>2021-10-05 14:21:02.530712</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993099</t>
+          <t>2021-10-05 14:21:02.530715</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993102</t>
+          <t>2021-10-05 14:21:02.530717</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993105</t>
+          <t>2021-10-05 14:21:02.530720</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993108</t>
+          <t>2021-10-05 14:21:02.530722</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993110</t>
+          <t>2021-10-05 14:21:02.530725</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993113</t>
+          <t>2021-10-05 14:21:02.530728</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993116</t>
+          <t>2021-10-05 14:21:02.530730</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993119</t>
+          <t>2021-10-05 14:21:02.530733</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993123</t>
+          <t>2021-10-05 14:21:02.530736</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993125</t>
+          <t>2021-10-05 14:21:02.530738</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993128</t>
+          <t>2021-10-05 14:21:02.530741</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993131</t>
+          <t>2021-10-05 14:21:02.530744</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993133</t>
+          <t>2021-10-05 14:21:02.530747</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993136</t>
+          <t>2021-10-05 14:21:02.530749</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993139</t>
+          <t>2021-10-05 14:21:02.530752</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993141</t>
+          <t>2021-10-05 14:21:02.530754</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993144</t>
+          <t>2021-10-05 14:21:02.530757</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993147</t>
+          <t>2021-10-05 14:21:02.530760</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993150</t>
+          <t>2021-10-05 14:21:02.530763</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993153</t>
+          <t>2021-10-05 14:21:02.530765</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993155</t>
+          <t>2021-10-05 14:21:02.530768</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993158</t>
+          <t>2021-10-05 14:21:02.530771</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993160</t>
+          <t>2021-10-05 14:21:02.530774</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993163</t>
+          <t>2021-10-05 14:21:02.530776</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993166</t>
+          <t>2021-10-05 14:21:02.530780</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993169</t>
+          <t>2021-10-05 14:21:02.530782</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993172</t>
+          <t>2021-10-05 14:21:02.530785</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993175</t>
+          <t>2021-10-05 14:21:02.530788</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993177</t>
+          <t>2021-10-05 14:21:02.530790</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993180</t>
+          <t>2021-10-05 14:21:02.530793</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993183</t>
+          <t>2021-10-05 14:21:02.530796</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993185</t>
+          <t>2021-10-05 14:21:02.530798</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993188</t>
+          <t>2021-10-05 14:21:02.530801</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993191</t>
+          <t>2021-10-05 14:21:02.530804</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993194</t>
+          <t>2021-10-05 14:21:02.530806</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993196</t>
+          <t>2021-10-05 14:21:02.530809</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993199</t>
+          <t>2021-10-05 14:21:02.530812</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993202</t>
+          <t>2021-10-05 14:21:02.530814</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993205</t>
+          <t>2021-10-05 14:21:02.530817</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993207</t>
+          <t>2021-10-05 14:21:02.530820</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993210</t>
+          <t>2021-10-05 14:21:02.530823</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993213</t>
+          <t>2021-10-05 14:21:02.530825</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993215</t>
+          <t>2021-10-05 14:21:02.530828</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993218</t>
+          <t>2021-10-05 14:21:02.530831</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993221</t>
+          <t>2021-10-05 14:21:02.530833</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993223</t>
+          <t>2021-10-05 14:21:02.530836</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993226</t>
+          <t>2021-10-05 14:21:02.530839</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993228</t>
+          <t>2021-10-05 14:21:02.530841</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993233</t>
+          <t>2021-10-05 14:21:02.530846</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993236</t>
+          <t>2021-10-05 14:21:02.530849</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993238</t>
+          <t>2021-10-05 14:21:02.530852</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993241</t>
+          <t>2021-10-05 14:21:02.530855</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993244</t>
+          <t>2021-10-05 14:21:02.530857</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,91 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:28.993247</t>
+          <t>2021-10-05 14:21:02.530860</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ichthyosis and erythrokeratoderma</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>555</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-09-30T14:21:23.768335Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:21:02.527439</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/555/?format=json</t>
         </is>
       </c>
     </row>
